--- a/biology/Botanique/Aimé_Luquet/Aimé_Luquet.xlsx
+++ b/biology/Botanique/Aimé_Luquet/Aimé_Luquet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Aim%C3%A9_Luquet</t>
+          <t>Aimé_Luquet</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aimé Luquet (né le 26 septembre 1885 à Amou (Landes) - mort le 20 août 1978 à Montpellier)[1] est un botaniste français, cofondateur en 1930 de la Station internationale de géobotanique méditerranéenne et alpine de Montpellier.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aimé Luquet (né le 26 septembre 1885 à Amou (Landes) - mort le 20 août 1978 à Montpellier) est un botaniste français, cofondateur en 1930 de la Station internationale de géobotanique méditerranéenne et alpine de Montpellier.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Aim%C3%A9_Luquet</t>
+          <t>Aimé_Luquet</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1926, il présente une thèse de doctorat ès sciences biologique à la faculté des sciences de Paris sur « la géographie botanique de l'Auvergne : Les associations végétales du massif des Monts-Dore ».
-En 1938, il est professeur au Lycée de Montpellier[2].
+En 1938, il est professeur au Lycée de Montpellier.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Aim%C3%A9_Luquet</t>
+          <t>Aimé_Luquet</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Ses publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le Pin sylvestre et l'épicéa dans le massif des Monts Dore, Clermont-Ferrand, Impr. G. Mont-Louis, 1925, 15p.
 Compte rendu de l'excursion faite en Limagne le 25 juillet 1924, dans Études phytosociologiques en Auvergne, rapport sur une excursion inter-universitaire, Arvernia , 1926, t.2, p. 3–13.
@@ -551,9 +567,9 @@
 Essai sur la géographie botanique de l'Auvergne : Les associations végétales du massif des Monts-Dore, thèse de doctorat d’État de l'Université de Paris, 1926, Saint Dizier, André Brulliard &amp; Paris, Presses Universitaires France, 263 p.
 Esquisse phytogéographique du Massif des Monts-Dores, Université de Grenoble, Institut de géographie alpine, 1926, 63 p.
 Recherches sur la structure anatomique des espèces xérophiles de la Limagne, 1928, 14 p.
-Études phytogéographiques sur la chaîne jurassienne : Recherches sur les associations végétales du Mont-Tendre, avec Stéphane Aubert, Revue de géographie alpine, 1930, vol.18, no 18-3, p. 491–536 [2]
+Études phytogéographiques sur la chaîne jurassienne : Recherches sur les associations végétales du Mont-Tendre, avec Stéphane Aubert, Revue de géographie alpine, 1930, vol.18, no 18-3, p. 491–536 
 Notice sur les travaux scientifiques, C. Déhan, 1937, 82 p.
-Recherches sur la géographie botanique du Massif Central : Les colonies xérothermiques de l'Auvergne [3], avec préface de Henri Jean Humbert, Aurillac, Imprimerie moderne, 1937, in-8°, 328 p., 16 pl. &amp; 2 fig. (puis réédition Paris, éd. Paul Lechevalier).</t>
+Recherches sur la géographie botanique du Massif Central : Les colonies xérothermiques de l'Auvergne , avec préface de Henri Jean Humbert, Aurillac, Imprimerie moderne, 1937, in-8°, 328 p., 16 pl. &amp; 2 fig. (puis réédition Paris, éd. Paul Lechevalier).</t>
         </is>
       </c>
     </row>
